--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_a3.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_a3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/data_analytics_research/shellbase_with_usc/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789E13D-E569-6F45-9C4A-487977D436CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F9488-B698-C744-A2B5-C9CD919A2B7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>STATION</t>
   </si>
@@ -486,7 +486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="NP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="NT27" sqref="NT27"/>
+      <selection pane="topRight" activeCell="NP14" sqref="NP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2184,7 +2184,9 @@
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="MN3" s="5">
         <v>1.7</v>
